--- a/test_files/test2_excel.xlsx
+++ b/test_files/test2_excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -24,7 +24,16 @@
     <t>TESTFILE1</t>
   </si>
   <si>
-    <t>age</t>
+    <t>fdf jfij ji  ij  jij  jijfijf jfijfi j jdfithe u ie hfdf jfij ji  ij  jij  jijfijf jfijfi j jdfithe u ie h fdf jfij ji  ij  jij  jijfijf jfijfi j jdfithe u ie hfdf jfij ji  ij  jij  jijfijf jfijfi j jdfithe u ie hfdf jfij ji  ij  jij  jijfijf jfijfi j jdfithe u ie hfdf jfij ji  ij  jij  jijfijf jfijfi j jdfithe u ie hfdf jfij ji  ij  jij  jijfijf jfijfi j jdfithe u ie hfdf jfij ji  ij  jij  jijfijf jfijfi j jdfithe u ie hfdf jfij ji  ij  jij  jijfijf jfijfi j jdfithe u ie hfdf jfij ji  ij  jij  jijfijf jfijfi j jdfithe u ie hfdf jfij ji  ij  jij  jijfijf jfijfi j jdfithe u ie hfdf jfij ji  ij  jij  jijfijf jfijfi j jdfithe u ie hfdf jfij ji  ij  jij  jijfijf jfijfi j jdfithe u ie hfdf jfij ji  ij  jij  jijfijf jfijfi j jdfithe u ie hfdf jfij ji  ij  jij  jijfijf jfijfi j jdfithe u ie h</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>DI1</t>
   </si>
 </sst>
 </file>
@@ -356,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:DI20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="CZ1" workbookViewId="0">
+      <selection activeCell="DI1" sqref="DI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -367,20 +376,32 @@
     <col min="1" max="1" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:113">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
+      <c r="DI1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:113">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>20</v>
+    </row>
+    <row r="4" spans="1:113">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:113">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
